--- a/mapping/input_list_ENVO.xlsx
+++ b/mapping/input_list_ENVO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -31,10 +31,13 @@
     <t>no IRI</t>
   </si>
   <si>
-    <t>{'Metal oxide'}</t>
-  </si>
-  <si>
-    <t>{'Quartz glass'}</t>
+    <t>{'metal oxide'}</t>
+  </si>
+  <si>
+    <t>{'quartz glass'}</t>
+  </si>
+  <si>
+    <t>{'adsorption'}</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_133331</t>
@@ -43,10 +46,16 @@
     <t>http://purl.obolibrary.org/obo/ENVO_01000485</t>
   </si>
   <si>
-    <t>{'label': 'Metal oxide'}</t>
-  </si>
-  <si>
-    <t>{'label': 'Quartz glass'}</t>
+    <t>http://purl.obolibrary.org/obo/ENVO_06105021</t>
+  </si>
+  <si>
+    <t>{'label': 'metal oxide'}</t>
+  </si>
+  <si>
+    <t>{'label': 'quartz glass'}</t>
+  </si>
+  <si>
+    <t>{'label': 'adsorption'}</t>
   </si>
 </sst>
 </file>
@@ -417,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -448,10 +457,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -465,16 +474,34 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mapping/input_list_ENVO.xlsx
+++ b/mapping/input_list_ENVO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>input_list_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>ENVO_DESC</t>
   </si>
   <si>
+    <t>ENVO_DEF</t>
+  </si>
+  <si>
     <t>no IRI</t>
   </si>
   <si>
@@ -40,6 +43,15 @@
     <t>{'adsorption'}</t>
   </si>
   <si>
+    <t>{'infrared'}</t>
+  </si>
+  <si>
+    <t>{'visible'}</t>
+  </si>
+  <si>
+    <t>{'ultraviolet'}</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_133331</t>
   </si>
   <si>
@@ -49,6 +61,15 @@
     <t>http://purl.obolibrary.org/obo/ENVO_06105021</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001214</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001215</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ENVO_01001216</t>
+  </si>
+  <si>
     <t>{'label': 'metal oxide'}</t>
   </si>
   <si>
@@ -56,6 +77,18 @@
   </si>
   <si>
     <t>{'label': 'adsorption'}</t>
+  </si>
+  <si>
+    <t>{'label': 'infrared'}</t>
+  </si>
+  <si>
+    <t>{'label': 'visible'}</t>
+  </si>
+  <si>
+    <t>{'label': 'ultraviolet'}</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -426,13 +459,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,56 +478,128 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -502,6 +607,9 @@
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
     <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D6" r:id="rId5"/>
+    <hyperlink ref="D7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
